--- a/Data/raw_data/CCBOR Water Testing Project data.xlsx
+++ b/Data/raw_data/CCBOR Water Testing Project data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="72">
   <si>
     <t>Site # (1-9)</t>
   </si>
@@ -109,13 +109,52 @@
     <t>SB, KM</t>
   </si>
   <si>
+    <t>CH, SB, KM</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>snowy field</t>
+  </si>
+  <si>
+    <t>CH, KM</t>
+  </si>
+  <si>
+    <t>BL, CH, KM</t>
+  </si>
+  <si>
+    <t>CO, KM</t>
+  </si>
+  <si>
+    <t>SB, JP</t>
+  </si>
+  <si>
+    <t>BL, CH</t>
+  </si>
+  <si>
+    <t>KM, CO</t>
+  </si>
+  <si>
+    <t>FS, CH, SB</t>
+  </si>
+  <si>
+    <t>Closest rainfall data available from Mt. Gilead</t>
+  </si>
+  <si>
     <t>Downstream 1</t>
   </si>
   <si>
     <t>Downstream 2</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Headwaters Alum Creek</t>
+  </si>
+  <si>
+    <t>Downstream</t>
   </si>
   <si>
     <t>Intermediate 2</t>
@@ -127,10 +166,13 @@
     <t xml:space="preserve">Headwaters Big Walnut Creek </t>
   </si>
   <si>
-    <t>Downstream</t>
+    <t>snowy fields with patches of ice in water</t>
   </si>
   <si>
     <t xml:space="preserve">Little Walnut Creek </t>
+  </si>
+  <si>
+    <t>Closest rainfall data available from Sunbury</t>
   </si>
   <si>
     <t>Site #</t>
@@ -200,24 +242,36 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss am/pm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -254,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -281,6 +335,21 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -541,22 +610,22 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.57"/>
-    <col customWidth="1" min="2" max="2" width="11.43"/>
-    <col customWidth="1" min="3" max="3" width="10.14"/>
-    <col customWidth="1" min="4" max="4" width="22.71"/>
-    <col customWidth="1" min="5" max="5" width="9.71"/>
-    <col customWidth="1" min="6" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="11.14"/>
-    <col customWidth="1" min="8" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="12.71"/>
-    <col customWidth="1" min="11" max="11" width="10.14"/>
-    <col customWidth="1" min="12" max="12" width="12.71"/>
-    <col customWidth="1" min="13" max="13" width="8.86"/>
-    <col customWidth="1" min="14" max="14" width="22.43"/>
+    <col customWidth="1" min="1" max="1" width="6.63"/>
+    <col customWidth="1" min="2" max="2" width="10.0"/>
+    <col customWidth="1" min="3" max="3" width="8.88"/>
+    <col customWidth="1" min="4" max="4" width="19.88"/>
+    <col customWidth="1" min="5" max="5" width="8.5"/>
+    <col customWidth="1" min="6" max="6" width="15.63"/>
+    <col customWidth="1" min="7" max="7" width="9.75"/>
+    <col customWidth="1" min="8" max="8" width="5.88"/>
+    <col customWidth="1" min="9" max="9" width="7.63"/>
+    <col customWidth="1" min="10" max="10" width="11.13"/>
+    <col customWidth="1" min="11" max="11" width="8.88"/>
+    <col customWidth="1" min="12" max="12" width="11.13"/>
+    <col customWidth="1" min="13" max="13" width="7.75"/>
+    <col customWidth="1" min="14" max="14" width="19.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -637,6 +706,9 @@
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
+      </c>
       <c r="H2" s="3">
         <v>1.0</v>
       </c>
@@ -666,6 +738,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="3">
         <v>1.0</v>
       </c>
@@ -695,6 +770,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.02</v>
+      </c>
       <c r="H4" s="3">
         <v>0.0</v>
       </c>
@@ -712,6 +790,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>1.0</v>
       </c>
@@ -741,6 +822,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>1.0</v>
       </c>
@@ -770,6 +854,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>0.0</v>
       </c>
@@ -799,6 +886,9 @@
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
       <c r="H8" s="3">
         <v>2.0</v>
       </c>
@@ -826,6 +916,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.03</v>
+      </c>
       <c r="H9" s="3">
         <v>2.0</v>
       </c>
@@ -852,6 +945,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>3.0</v>
       </c>
@@ -881,6 +977,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="3">
         <v>4.0</v>
       </c>
@@ -898,6 +997,473 @@
       </c>
       <c r="M11" s="3">
         <v>101.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="K12" s="3">
+        <v>298.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>430.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>204.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>471.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>678.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>324.0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.4270833333333333</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>331.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>476.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>220.0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="K15" s="3">
+        <v>174.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>249.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8.7</v>
+      </c>
+      <c r="K16" s="3">
+        <v>237.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>347.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>163.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="K17" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>399.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>189.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="K18" s="3">
+        <v>344.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>493.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>235.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="K19" s="3">
+        <v>309.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>438.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>212.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>212.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>302.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>548.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>781.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>371.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.4270833333333333</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>562.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>802.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>388.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="K23" s="3">
+        <v>701.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1001.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>490.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.4409722222222222</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="K24" s="3">
+        <v>424.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>603.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>287.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>24.1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>532.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>763.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>370.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4">
+        <v>44786.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -916,52 +1482,52 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.14"/>
-    <col customWidth="1" min="2" max="2" width="26.29"/>
-    <col customWidth="1" min="4" max="4" width="22.0"/>
+    <col customWidth="1" min="1" max="1" width="13.25"/>
+    <col customWidth="1" min="2" max="2" width="23.0"/>
+    <col customWidth="1" min="4" max="4" width="19.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
     </row>
     <row r="2">
       <c r="A2" s="3">
@@ -974,10 +1540,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -988,13 +1554,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1005,13 +1571,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1019,16 +1585,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -1036,16 +1602,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1619,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1070,16 +1636,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -1087,16 +1653,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1104,16 +1670,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1129,21 +1695,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.43"/>
-    <col customWidth="1" min="2" max="2" width="10.29"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="4" width="21.71"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="18.0"/>
-    <col customWidth="1" min="7" max="7" width="10.86"/>
-    <col customWidth="1" min="8" max="8" width="8.57"/>
-    <col customWidth="1" min="9" max="9" width="9.29"/>
-    <col customWidth="1" min="10" max="10" width="12.43"/>
-    <col customWidth="1" min="11" max="11" width="10.86"/>
-    <col customWidth="1" min="12" max="12" width="13.0"/>
-    <col customWidth="1" min="13" max="13" width="8.43"/>
+    <col customWidth="1" min="1" max="1" width="6.5"/>
+    <col customWidth="1" min="2" max="2" width="9.0"/>
+    <col customWidth="1" min="3" max="3" width="8.75"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="11.63"/>
+    <col customWidth="1" min="6" max="6" width="15.75"/>
+    <col customWidth="1" min="7" max="7" width="9.5"/>
+    <col customWidth="1" min="8" max="8" width="7.5"/>
+    <col customWidth="1" min="9" max="9" width="8.13"/>
+    <col customWidth="1" min="10" max="10" width="10.88"/>
+    <col customWidth="1" min="11" max="11" width="9.5"/>
+    <col customWidth="1" min="12" max="12" width="11.38"/>
+    <col customWidth="1" min="13" max="13" width="7.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -1219,10 +1785,13 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
         <v>1.0</v>
@@ -1253,6 +1822,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="3">
         <v>2.0</v>
       </c>
@@ -1282,6 +1854,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.02</v>
+      </c>
       <c r="H4" s="3">
         <v>1.0</v>
       </c>
@@ -1311,6 +1886,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>2.0</v>
       </c>
@@ -1340,6 +1918,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>2.0</v>
       </c>
@@ -1369,6 +1950,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>1.0</v>
       </c>
@@ -1398,6 +1982,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
       <c r="H8" s="3">
         <v>2.0</v>
       </c>
@@ -1427,6 +2014,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.03</v>
+      </c>
       <c r="H9" s="3">
         <v>2.0</v>
       </c>
@@ -1453,6 +2043,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>1.0</v>
       </c>
@@ -1480,6 +2073,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="3">
         <v>4.0</v>
       </c>
@@ -1497,6 +2093,485 @@
       </c>
       <c r="M11" s="3">
         <v>157.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>504.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>719.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>348.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>648.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>950.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>459.0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.4409722222222222</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="K14" s="3">
+        <v>319.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>437.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>219.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.5722222222222222</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>284.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>401.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>190.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="K16" s="3">
+        <v>385.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>446.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>267.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9.2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>310.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>447.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>213.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9.2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>592.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>858.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>416.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>431.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>617.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>293.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>187.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>272.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>128.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>298.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>425.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>201.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.43819444444444444</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>388.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>555.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>263.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>450.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>650.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>311.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K24" s="3">
+        <v>368.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>530.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>253.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>622.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>889.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>432.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4">
+        <v>44786.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>20.1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>638.0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>918.0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>447.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1512,21 +2587,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.43"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="18.0"/>
-    <col customWidth="1" min="7" max="7" width="10.71"/>
-    <col customWidth="1" min="8" max="8" width="8.0"/>
-    <col customWidth="1" min="9" max="9" width="9.29"/>
-    <col customWidth="1" min="10" max="10" width="12.86"/>
-    <col customWidth="1" min="11" max="11" width="10.71"/>
-    <col customWidth="1" min="12" max="12" width="12.71"/>
-    <col customWidth="1" min="13" max="13" width="9.43"/>
+    <col customWidth="1" min="1" max="1" width="6.5"/>
+    <col customWidth="1" min="2" max="2" width="8.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="19.5"/>
+    <col customWidth="1" min="5" max="5" width="11.63"/>
+    <col customWidth="1" min="6" max="6" width="15.75"/>
+    <col customWidth="1" min="7" max="7" width="9.38"/>
+    <col customWidth="1" min="8" max="8" width="7.0"/>
+    <col customWidth="1" min="9" max="9" width="8.13"/>
+    <col customWidth="1" min="10" max="10" width="11.25"/>
+    <col customWidth="1" min="11" max="11" width="9.38"/>
+    <col customWidth="1" min="12" max="12" width="11.13"/>
+    <col customWidth="1" min="13" max="13" width="8.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -1602,10 +2677,13 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
         <v>2.0</v>
@@ -1636,6 +2714,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="3">
         <v>1.0</v>
       </c>
@@ -1665,6 +2746,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.02</v>
+      </c>
       <c r="H4" s="3">
         <v>1.0</v>
       </c>
@@ -1694,6 +2778,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>1.0</v>
       </c>
@@ -1723,6 +2810,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>2.0</v>
       </c>
@@ -1752,6 +2842,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>3.0</v>
       </c>
@@ -1781,6 +2874,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
       <c r="H8" s="3">
         <v>3.0</v>
       </c>
@@ -1808,6 +2904,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.03</v>
+      </c>
       <c r="H9" s="3">
         <v>3.0</v>
       </c>
@@ -1834,6 +2933,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>4.0</v>
       </c>
@@ -1863,6 +2965,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="3">
         <v>4.0</v>
       </c>
@@ -1880,6 +2985,488 @@
       </c>
       <c r="M11" s="3">
         <v>195.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>548.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>784.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>378.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5236111111111111</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="K13" s="3">
+        <v>637.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>916.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>444.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>284.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>408.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>193.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>336.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>480.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>230.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4423611111111111</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>435.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>611.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>284.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.4756944444444444</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9.2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>321.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>456.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.5055555555555555</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>636.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>911.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>444.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.4618055555555556</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>450.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>651.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>312.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>205.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>290.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>139.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1122.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>159.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>76.0</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>376.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>545.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>259.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>19.9</v>
+      </c>
+      <c r="K23" s="3">
+        <v>525.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>750.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>365.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.4618055555555556</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K24" s="3">
+        <v>352.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>501.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>241.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="K25" s="3">
+        <v>637.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>910.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>443.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4">
+        <v>44786.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>643.0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>921.0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>448.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1895,20 +3482,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.57"/>
-    <col customWidth="1" min="2" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="4" width="21.71"/>
-    <col customWidth="1" min="5" max="5" width="9.71"/>
-    <col customWidth="1" min="6" max="6" width="18.29"/>
-    <col customWidth="1" min="7" max="7" width="10.57"/>
-    <col customWidth="1" min="8" max="8" width="8.43"/>
-    <col customWidth="1" min="9" max="9" width="9.71"/>
-    <col customWidth="1" min="10" max="10" width="12.14"/>
-    <col customWidth="1" min="11" max="11" width="10.0"/>
-    <col customWidth="1" min="12" max="12" width="13.0"/>
-    <col customWidth="1" min="13" max="13" width="8.57"/>
+    <col customWidth="1" min="1" max="1" width="6.63"/>
+    <col customWidth="1" min="2" max="3" width="8.75"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="8.5"/>
+    <col customWidth="1" min="6" max="6" width="16.0"/>
+    <col customWidth="1" min="7" max="7" width="9.25"/>
+    <col customWidth="1" min="8" max="8" width="7.38"/>
+    <col customWidth="1" min="9" max="9" width="8.5"/>
+    <col customWidth="1" min="10" max="10" width="10.63"/>
+    <col customWidth="1" min="11" max="11" width="8.75"/>
+    <col customWidth="1" min="12" max="12" width="11.38"/>
+    <col customWidth="1" min="13" max="13" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -1981,13 +3568,16 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
         <v>2.0</v>
@@ -2018,6 +3608,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="3">
         <v>2.0</v>
       </c>
@@ -2047,6 +3640,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.02</v>
+      </c>
       <c r="H4" s="3">
         <v>2.0</v>
       </c>
@@ -2076,6 +3672,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>2.0</v>
       </c>
@@ -2105,6 +3704,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>2.0</v>
       </c>
@@ -2134,6 +3736,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>3.0</v>
       </c>
@@ -2163,6 +3768,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
       <c r="H8" s="3">
         <v>3.0</v>
       </c>
@@ -2190,6 +3798,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.03</v>
+      </c>
       <c r="H9" s="3">
         <v>3.0</v>
       </c>
@@ -2216,6 +3827,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>3.0</v>
       </c>
@@ -2245,6 +3859,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="J11" s="3">
         <v>7.4</v>
       </c>
@@ -2256,6 +3873,479 @@
       </c>
       <c r="M11" s="3">
         <v>216.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>492.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>692.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>341.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5354166666666667</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>555.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>777.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>383.0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.45902777777777776</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>522.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>768.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>320.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>452.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>319.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="K16" s="3">
+        <v>380.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>559.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>266.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="K17" s="3">
+        <v>368.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>524.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>620.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>877.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>432.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="K19" s="3">
+        <v>392.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>545.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="K20" s="3">
+        <v>258.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>368.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>172.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.4756944444444444</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>136.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>191.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>347.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>487.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>235.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>587.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>836.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>401.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20.6</v>
+      </c>
+      <c r="K24" s="3">
+        <v>537.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>765.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>370.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="K25" s="3">
+        <v>533.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>760.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>370.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4">
+        <v>44786.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="K26" s="3">
+        <v>542.0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>780.0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>377.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2271,21 +4361,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.71"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="21.29"/>
-    <col customWidth="1" min="5" max="5" width="9.14"/>
-    <col customWidth="1" min="6" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="7" width="10.86"/>
-    <col customWidth="1" min="8" max="8" width="7.29"/>
-    <col customWidth="1" min="9" max="9" width="9.14"/>
-    <col customWidth="1" min="10" max="10" width="12.0"/>
-    <col customWidth="1" min="11" max="11" width="10.0"/>
-    <col customWidth="1" min="12" max="12" width="13.0"/>
-    <col customWidth="1" min="13" max="13" width="8.29"/>
+    <col customWidth="1" min="1" max="1" width="6.75"/>
+    <col customWidth="1" min="2" max="2" width="8.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="18.63"/>
+    <col customWidth="1" min="5" max="5" width="11.0"/>
+    <col customWidth="1" min="6" max="6" width="15.88"/>
+    <col customWidth="1" min="7" max="7" width="9.5"/>
+    <col customWidth="1" min="8" max="8" width="6.38"/>
+    <col customWidth="1" min="9" max="9" width="8.0"/>
+    <col customWidth="1" min="10" max="10" width="10.5"/>
+    <col customWidth="1" min="11" max="11" width="8.75"/>
+    <col customWidth="1" min="12" max="12" width="11.38"/>
+    <col customWidth="1" min="13" max="13" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -2358,13 +4448,16 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
         <v>3.0</v>
@@ -2395,6 +4488,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="3">
         <v>3.0</v>
       </c>
@@ -2424,6 +4520,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.02</v>
+      </c>
       <c r="H4" s="3">
         <v>2.0</v>
       </c>
@@ -2453,6 +4552,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>3.0</v>
       </c>
@@ -2482,6 +4584,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>3.0</v>
       </c>
@@ -2511,6 +4616,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>3.0</v>
       </c>
@@ -2540,6 +4648,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
       <c r="H8" s="3">
         <v>3.0</v>
       </c>
@@ -2569,6 +4680,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.03</v>
+      </c>
       <c r="H9" s="3">
         <v>3.0</v>
       </c>
@@ -2595,6 +4709,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>3.0</v>
       </c>
@@ -2624,6 +4741,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="3">
         <v>4.0</v>
       </c>
@@ -2641,6 +4761,490 @@
       </c>
       <c r="M11" s="3">
         <v>212.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5055555555555555</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>483.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>693.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>320.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="K13" s="3">
+        <v>569.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>836.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>401.0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="K14" s="3">
+        <v>623.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>903.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>439.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.5243055555555556</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>332.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>468.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>333.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>9.3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>399.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>563.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>264.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>431.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>617.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>297.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>660.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>942.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>455.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="K19" s="3">
+        <v>403.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>576.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>273.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="K20" s="3">
+        <v>326.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>474.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>225.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.4875</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>228.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>322.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>148.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.4708333333333333</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>339.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>489.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>233.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.4847222222222222</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="K23" s="3">
+        <v>660.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>967.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>465.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>418.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>600.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>288.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>479.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>688.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>330.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4">
+        <v>44786.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.5902777777777778</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>473.0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>680.0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>326.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2656,21 +5260,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.29"/>
-    <col customWidth="1" min="2" max="2" width="10.86"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="21.57"/>
-    <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="6" width="17.71"/>
-    <col customWidth="1" min="7" max="7" width="11.14"/>
-    <col customWidth="1" min="8" max="8" width="7.57"/>
-    <col customWidth="1" min="9" max="9" width="9.29"/>
-    <col customWidth="1" min="10" max="10" width="12.57"/>
-    <col customWidth="1" min="11" max="11" width="11.0"/>
-    <col customWidth="1" min="12" max="12" width="12.29"/>
-    <col customWidth="1" min="13" max="13" width="8.57"/>
+    <col customWidth="1" min="1" max="1" width="6.38"/>
+    <col customWidth="1" min="2" max="2" width="9.5"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="18.88"/>
+    <col customWidth="1" min="5" max="5" width="12.0"/>
+    <col customWidth="1" min="6" max="6" width="15.5"/>
+    <col customWidth="1" min="7" max="7" width="9.75"/>
+    <col customWidth="1" min="8" max="8" width="6.63"/>
+    <col customWidth="1" min="9" max="9" width="8.13"/>
+    <col customWidth="1" min="10" max="10" width="11.0"/>
+    <col customWidth="1" min="11" max="11" width="9.63"/>
+    <col customWidth="1" min="12" max="12" width="10.75"/>
+    <col customWidth="1" min="13" max="13" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -2743,13 +5347,16 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
         <v>3.0</v>
@@ -2780,6 +5387,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="3">
         <v>3.0</v>
       </c>
@@ -2809,6 +5419,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.02</v>
+      </c>
       <c r="H4" s="3">
         <v>2.0</v>
       </c>
@@ -2838,6 +5451,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>3.0</v>
       </c>
@@ -2867,6 +5483,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>3.0</v>
       </c>
@@ -2896,6 +5515,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>3.0</v>
       </c>
@@ -2925,6 +5547,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
       <c r="H8" s="3">
         <v>3.0</v>
       </c>
@@ -2954,6 +5579,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.03</v>
+      </c>
       <c r="H9" s="3">
         <v>3.0</v>
       </c>
@@ -2980,6 +5608,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>3.0</v>
       </c>
@@ -3009,6 +5640,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="3">
         <v>4.0</v>
       </c>
@@ -3026,6 +5660,456 @@
       </c>
       <c r="M11" s="3">
         <v>210.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>480.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>693.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>334.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>570.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>818.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>398.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>525.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>745.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>361.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.6180555555555556</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>312.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>447.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>214.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>9.2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>372.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>551.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>261.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="K17" s="3">
+        <v>391.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>555.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>266.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>602.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>859.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>419.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="K19" s="3">
+        <v>380.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>547.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>262.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>277.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>393.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>188.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19.1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>164.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>232.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.4798611111111111</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>318.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>456.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>218.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.49375</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="K23" s="3">
+        <v>651.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>925.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>455.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K24" s="3">
+        <v>497.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>707.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>343.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="K25" s="3">
+        <v>502.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>721.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>347.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3041,21 +6125,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.86"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="21.71"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="17.71"/>
-    <col customWidth="1" min="7" max="7" width="10.43"/>
-    <col customWidth="1" min="8" max="8" width="8.0"/>
-    <col customWidth="1" min="9" max="9" width="9.57"/>
-    <col customWidth="1" min="10" max="10" width="12.43"/>
-    <col customWidth="1" min="11" max="11" width="10.71"/>
-    <col customWidth="1" min="12" max="12" width="12.57"/>
-    <col customWidth="1" min="13" max="13" width="8.29"/>
+    <col customWidth="1" min="1" max="1" width="6.88"/>
+    <col customWidth="1" min="2" max="2" width="8.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="11.63"/>
+    <col customWidth="1" min="6" max="6" width="15.5"/>
+    <col customWidth="1" min="7" max="7" width="9.13"/>
+    <col customWidth="1" min="8" max="8" width="7.0"/>
+    <col customWidth="1" min="9" max="9" width="8.38"/>
+    <col customWidth="1" min="10" max="10" width="10.88"/>
+    <col customWidth="1" min="11" max="11" width="9.38"/>
+    <col customWidth="1" min="12" max="12" width="11.0"/>
+    <col customWidth="1" min="13" max="13" width="7.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -3128,13 +6212,16 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
         <v>2.0</v>
@@ -3165,6 +6252,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="3">
         <v>3.0</v>
       </c>
@@ -3194,6 +6284,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.02</v>
+      </c>
       <c r="H4" s="3">
         <v>2.0</v>
       </c>
@@ -3223,6 +6316,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>3.0</v>
       </c>
@@ -3252,6 +6348,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>3.0</v>
       </c>
@@ -3281,6 +6380,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>3.0</v>
       </c>
@@ -3310,6 +6412,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
       <c r="H8" s="3">
         <v>3.0</v>
       </c>
@@ -3337,6 +6442,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.03</v>
+      </c>
       <c r="H9" s="3">
         <v>3.0</v>
       </c>
@@ -3363,6 +6471,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>3.0</v>
       </c>
@@ -3390,6 +6501,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="3">
         <v>3.0</v>
       </c>
@@ -3407,6 +6521,452 @@
       </c>
       <c r="M11" s="3">
         <v>214.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>484.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>684.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>338.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K13" s="3">
+        <v>832.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1220.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>593.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>755.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>356.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>319.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>315.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>380.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>534.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>262.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>380.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>541.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>261.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>605.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>885.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>422.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="K19" s="3">
+        <v>392.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>557.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>269.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>253.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>361.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>143.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>204.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>94.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.4875</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>343.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>486.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>234.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.5020833333333333</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="K23" s="3">
+        <v>639.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>913.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>444.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.5104166666666666</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>525.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>754.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>365.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="K25" s="3">
+        <v>520.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>746.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>360.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3422,21 +6982,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.57"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="26.71"/>
-    <col customWidth="1" min="5" max="5" width="11.43"/>
-    <col customWidth="1" min="6" max="6" width="17.71"/>
-    <col customWidth="1" min="7" max="7" width="10.29"/>
-    <col customWidth="1" min="8" max="8" width="7.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="12.57"/>
-    <col customWidth="1" min="11" max="11" width="11.43"/>
-    <col customWidth="1" min="12" max="12" width="12.57"/>
-    <col customWidth="1" min="13" max="13" width="8.43"/>
+    <col customWidth="1" min="1" max="1" width="6.63"/>
+    <col customWidth="1" min="2" max="2" width="9.13"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="23.38"/>
+    <col customWidth="1" min="5" max="5" width="10.0"/>
+    <col customWidth="1" min="6" max="6" width="15.5"/>
+    <col customWidth="1" min="7" max="7" width="9.0"/>
+    <col customWidth="1" min="8" max="8" width="6.75"/>
+    <col customWidth="1" min="9" max="9" width="9.5"/>
+    <col customWidth="1" min="10" max="10" width="11.0"/>
+    <col customWidth="1" min="11" max="11" width="10.0"/>
+    <col customWidth="1" min="12" max="12" width="11.0"/>
+    <col customWidth="1" min="13" max="13" width="7.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -3509,13 +7069,16 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
       </c>
       <c r="H2" s="3">
         <v>2.0</v>
@@ -3546,6 +7109,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="3">
         <v>2.0</v>
       </c>
@@ -3575,6 +7141,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.02</v>
+      </c>
       <c r="H4" s="3">
         <v>1.0</v>
       </c>
@@ -3604,6 +7173,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>1.0</v>
       </c>
@@ -3633,6 +7205,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>2.0</v>
       </c>
@@ -3662,6 +7237,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>3.0</v>
       </c>
@@ -3691,6 +7269,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.23</v>
+      </c>
       <c r="H8" s="3">
         <v>3.0</v>
       </c>
@@ -3720,6 +7301,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.03</v>
+      </c>
       <c r="H9" s="3">
         <v>3.0</v>
       </c>
@@ -3746,6 +7330,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>4.0</v>
       </c>
@@ -3775,6 +7362,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="3">
         <v>4.0</v>
       </c>
@@ -3792,6 +7382,461 @@
       </c>
       <c r="M11" s="3">
         <v>235.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>464.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>665.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>316.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K13" s="3">
+        <v>527.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>746.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>368.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>422.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>752.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>376.0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.6423611111111112</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="K15" s="3">
+        <v>334.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>474.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>335.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="K16" s="3">
+        <v>403.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>568.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>277.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>375.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>534.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>254.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.5951388888888889</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="K18" s="3">
+        <v>576.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>822.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>395.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>508.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>726.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="K20" s="3">
+        <v>277.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>409.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>194.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.5201388888888889</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>261.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>378.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>182.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.57</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="K22" s="3">
+        <v>502.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>711.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>342.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.5118055555555555</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="K23" s="3">
+        <v>920.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1317.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>653.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.5243055555555556</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="K24" s="3">
+        <v>443.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>629.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>306.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.575</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.28</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="K25" s="3">
+        <v>810.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1161.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>570.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3807,21 +7852,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.71"/>
-    <col customWidth="1" min="2" max="2" width="10.57"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
-    <col customWidth="1" min="5" max="5" width="11.86"/>
-    <col customWidth="1" min="6" max="6" width="18.0"/>
-    <col customWidth="1" min="7" max="7" width="11.71"/>
-    <col customWidth="1" min="8" max="8" width="8.0"/>
-    <col customWidth="1" min="9" max="9" width="10.14"/>
-    <col customWidth="1" min="10" max="10" width="12.71"/>
-    <col customWidth="1" min="11" max="11" width="12.43"/>
-    <col customWidth="1" min="12" max="12" width="12.86"/>
-    <col customWidth="1" min="13" max="13" width="8.57"/>
+    <col customWidth="1" min="1" max="1" width="6.75"/>
+    <col customWidth="1" min="2" max="2" width="9.25"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="14.88"/>
+    <col customWidth="1" min="5" max="5" width="10.38"/>
+    <col customWidth="1" min="6" max="6" width="15.75"/>
+    <col customWidth="1" min="7" max="7" width="10.25"/>
+    <col customWidth="1" min="8" max="8" width="7.0"/>
+    <col customWidth="1" min="9" max="9" width="8.88"/>
+    <col customWidth="1" min="10" max="10" width="11.13"/>
+    <col customWidth="1" min="11" max="11" width="10.88"/>
+    <col customWidth="1" min="12" max="12" width="11.25"/>
+    <col customWidth="1" min="13" max="13" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.75" customHeight="1">
@@ -3894,13 +7939,16 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.11</v>
       </c>
       <c r="H2" s="3">
         <v>3.0</v>
@@ -3931,6 +7979,9 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="3">
+        <v>1.56</v>
+      </c>
       <c r="H3" s="3">
         <v>3.0</v>
       </c>
@@ -3960,6 +8011,9 @@
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3">
+        <v>0.13</v>
+      </c>
       <c r="H4" s="3">
         <v>3.0</v>
       </c>
@@ -3989,6 +8043,9 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H5" s="3">
         <v>3.0</v>
       </c>
@@ -4018,6 +8075,9 @@
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="3">
         <v>3.0</v>
       </c>
@@ -4047,6 +8107,9 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="3">
         <v>3.0</v>
       </c>
@@ -4076,6 +8139,9 @@
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G8" s="3">
+        <v>0.38</v>
+      </c>
       <c r="H8" s="3">
         <v>3.0</v>
       </c>
@@ -4105,6 +8171,9 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G9" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H9" s="3">
         <v>3.0</v>
       </c>
@@ -4131,6 +8200,9 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="3">
         <v>3.0</v>
       </c>
@@ -4160,6 +8232,9 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="3">
+        <v>0.75</v>
+      </c>
       <c r="H11" s="3">
         <v>3.0</v>
       </c>
@@ -4177,6 +8252,459 @@
       </c>
       <c r="M11" s="3">
         <v>213.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="8">
+        <v>44575.0</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>807.0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1162.0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>569.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="8">
+        <v>44589.0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1001.0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1423.0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>684.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="4">
+        <v>44603.0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>553.0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>788.0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>426.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="4">
+        <v>44618.0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.6840277777777778</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>469.0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>669.0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>323.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="4">
+        <v>44631.0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.5381944444444444</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="K16" s="3">
+        <v>666.0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>955.0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>446.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="4">
+        <v>44644.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="K17" s="3">
+        <v>595.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>878.0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>418.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="4">
+        <v>44659.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.6229166666666667</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1019.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1517.0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>762.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4">
+        <v>44673.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="K19" s="3">
+        <v>779.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1131.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>553.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="4">
+        <v>44687.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.5680555555555555</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="K20" s="3">
+        <v>233.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>333.0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>159.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>44701.0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20.7</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1099.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1571.0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>780.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="4">
+        <v>44721.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.5326388888888889</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>190.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>130.0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="4">
+        <v>44739.0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="K23" s="3">
+        <v>994.0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1420.0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>707.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4">
+        <v>44760.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3.32</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>273.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>391.0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>186.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4">
+        <v>44771.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.6145833333333334</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>994.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1420.0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>707.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
